--- a/data/pca/factorExposure/factorExposure_2008-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-29.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01977303443990931</v>
+        <v>-0.0182520419293144</v>
       </c>
       <c r="C2">
-        <v>-0.01047471794359358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01272086186351977</v>
+      </c>
+      <c r="D2">
+        <v>-0.01251938196350664</v>
+      </c>
+      <c r="E2">
+        <v>-0.01393093671297221</v>
+      </c>
+      <c r="F2">
+        <v>0.003680969855892256</v>
+      </c>
+      <c r="G2">
+        <v>0.01962379035128806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07921719308167201</v>
+        <v>-0.08242385830816359</v>
       </c>
       <c r="C4">
-        <v>-0.08519239274972526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08799876072940463</v>
+      </c>
+      <c r="D4">
+        <v>0.05933280635592048</v>
+      </c>
+      <c r="E4">
+        <v>-0.03402699189743331</v>
+      </c>
+      <c r="F4">
+        <v>0.01952422313863812</v>
+      </c>
+      <c r="G4">
+        <v>0.02600465512708102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004156882472004372</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001816004836406819</v>
+      </c>
+      <c r="D5">
+        <v>0.0008028068028205441</v>
+      </c>
+      <c r="E5">
+        <v>0.004455254555513451</v>
+      </c>
+      <c r="F5">
+        <v>0.002626900906124688</v>
+      </c>
+      <c r="G5">
+        <v>-0.005114229369780521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1696848682782384</v>
+        <v>-0.1713063932121036</v>
       </c>
       <c r="C6">
-        <v>0.01879564459968926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.00924090290825913</v>
+      </c>
+      <c r="D6">
+        <v>0.06576349517524981</v>
+      </c>
+      <c r="E6">
+        <v>0.05589173265332049</v>
+      </c>
+      <c r="F6">
+        <v>0.03197922553543273</v>
+      </c>
+      <c r="G6">
+        <v>-0.02189031471328522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05251820548084475</v>
+        <v>-0.05445997805827475</v>
       </c>
       <c r="C7">
-        <v>-0.05578617137852428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06021530440739081</v>
+      </c>
+      <c r="D7">
+        <v>0.06470181408930682</v>
+      </c>
+      <c r="E7">
+        <v>-0.07255027225479307</v>
+      </c>
+      <c r="F7">
+        <v>-0.01059870471610341</v>
+      </c>
+      <c r="G7">
+        <v>0.07371943653169677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04981807895718506</v>
+        <v>-0.04795082598519401</v>
       </c>
       <c r="C8">
-        <v>-0.05012443377800335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05047607479583203</v>
+      </c>
+      <c r="D8">
+        <v>-0.02271869239791427</v>
+      </c>
+      <c r="E8">
+        <v>-0.04466472049902089</v>
+      </c>
+      <c r="F8">
+        <v>-0.01385757013962086</v>
+      </c>
+      <c r="G8">
+        <v>0.003588942847590123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05645822804533291</v>
+        <v>-0.061302308898848</v>
       </c>
       <c r="C9">
-        <v>-0.09331456443719892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09413551922217853</v>
+      </c>
+      <c r="D9">
+        <v>0.08926320922179917</v>
+      </c>
+      <c r="E9">
+        <v>-0.05348105071134414</v>
+      </c>
+      <c r="F9">
+        <v>0.003544324401467327</v>
+      </c>
+      <c r="G9">
+        <v>0.003215579638512704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1177381243536098</v>
+        <v>-0.1038191317144217</v>
       </c>
       <c r="C10">
-        <v>0.1450005062999026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1328131414399321</v>
+      </c>
+      <c r="D10">
+        <v>-0.09477391204515466</v>
+      </c>
+      <c r="E10">
+        <v>-0.04321862358585731</v>
+      </c>
+      <c r="F10">
+        <v>-0.03095340775612944</v>
+      </c>
+      <c r="G10">
+        <v>-0.007741355408550293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07813313865861793</v>
+        <v>-0.07563354078132976</v>
       </c>
       <c r="C11">
-        <v>-0.1365651242548644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1354417974157114</v>
+      </c>
+      <c r="D11">
+        <v>0.04856099572668338</v>
+      </c>
+      <c r="E11">
+        <v>-0.06826314076674563</v>
+      </c>
+      <c r="F11">
+        <v>-0.002232010431861708</v>
+      </c>
+      <c r="G11">
+        <v>-0.00623824289505172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07924038803442372</v>
+        <v>-0.0756900638639941</v>
       </c>
       <c r="C12">
-        <v>-0.1642867794190375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1600043462386586</v>
+      </c>
+      <c r="D12">
+        <v>0.05270986996289206</v>
+      </c>
+      <c r="E12">
+        <v>-0.06942050974337891</v>
+      </c>
+      <c r="F12">
+        <v>-0.009637634092275423</v>
+      </c>
+      <c r="G12">
+        <v>0.01968863851629334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0397728852751765</v>
+        <v>-0.04149783567486615</v>
       </c>
       <c r="C13">
-        <v>-0.06926615987434584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07403674685668442</v>
+      </c>
+      <c r="D13">
+        <v>0.03316037333209096</v>
+      </c>
+      <c r="E13">
+        <v>-0.07469360410136014</v>
+      </c>
+      <c r="F13">
+        <v>-0.01319034346225096</v>
+      </c>
+      <c r="G13">
+        <v>0.03053720064946745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02051418984312711</v>
+        <v>-0.02319953991950003</v>
       </c>
       <c r="C14">
-        <v>-0.05016427240097319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0513866619411895</v>
+      </c>
+      <c r="D14">
+        <v>0.04379893129846622</v>
+      </c>
+      <c r="E14">
+        <v>-0.06990557761882434</v>
+      </c>
+      <c r="F14">
+        <v>-0.008460323615221936</v>
+      </c>
+      <c r="G14">
+        <v>-0.008925962875013861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03285051497591195</v>
+        <v>-0.0330727575104499</v>
       </c>
       <c r="C15">
-        <v>-0.06545778424377675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06261240800664593</v>
+      </c>
+      <c r="D15">
+        <v>0.04669206113945924</v>
+      </c>
+      <c r="E15">
+        <v>-0.01579759921825039</v>
+      </c>
+      <c r="F15">
+        <v>-0.02004150997094539</v>
+      </c>
+      <c r="G15">
+        <v>0.01424096452993248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05586726865653761</v>
+        <v>-0.05475592850242457</v>
       </c>
       <c r="C16">
-        <v>-0.1572873552245447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1558784843510576</v>
+      </c>
+      <c r="D16">
+        <v>0.04885287598078068</v>
+      </c>
+      <c r="E16">
+        <v>-0.06173478467286793</v>
+      </c>
+      <c r="F16">
+        <v>0.01619405088227143</v>
+      </c>
+      <c r="G16">
+        <v>-0.01788955532455307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007101105680196571</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.005497163493489571</v>
+      </c>
+      <c r="D17">
+        <v>-0.002999053615509967</v>
+      </c>
+      <c r="E17">
+        <v>0.01098044529333935</v>
+      </c>
+      <c r="F17">
+        <v>-0.008059268115840238</v>
+      </c>
+      <c r="G17">
+        <v>-0.006573321772868797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04393602888982696</v>
+        <v>-0.05426508444085999</v>
       </c>
       <c r="C18">
-        <v>-0.05472455146071128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.05078935825362322</v>
+      </c>
+      <c r="D18">
+        <v>-0.0004987163717745607</v>
+      </c>
+      <c r="E18">
+        <v>0.05863774944705464</v>
+      </c>
+      <c r="F18">
+        <v>0.006020298364381637</v>
+      </c>
+      <c r="G18">
+        <v>-0.01386164180893474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0569375575425826</v>
+        <v>-0.05636638865914658</v>
       </c>
       <c r="C20">
-        <v>-0.1065308030547047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1036022023385243</v>
+      </c>
+      <c r="D20">
+        <v>0.0714964950081548</v>
+      </c>
+      <c r="E20">
+        <v>-0.05932895115358873</v>
+      </c>
+      <c r="F20">
+        <v>-0.007609138568584913</v>
+      </c>
+      <c r="G20">
+        <v>0.005334185052828352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04384984848732227</v>
+        <v>-0.04563645533203069</v>
       </c>
       <c r="C21">
-        <v>-0.0683876499112684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06458069876297463</v>
+      </c>
+      <c r="D21">
+        <v>0.02078152159589878</v>
+      </c>
+      <c r="E21">
+        <v>-0.05854071280309565</v>
+      </c>
+      <c r="F21">
+        <v>-0.0008960835244979643</v>
+      </c>
+      <c r="G21">
+        <v>0.02529240130834194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04499648988652723</v>
+        <v>-0.04495595760535545</v>
       </c>
       <c r="C22">
-        <v>-0.03689817800994932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04059427468512255</v>
+      </c>
+      <c r="D22">
+        <v>-0.09880670742800554</v>
+      </c>
+      <c r="E22">
+        <v>0.04232808100074218</v>
+      </c>
+      <c r="F22">
+        <v>0.1114517950588373</v>
+      </c>
+      <c r="G22">
+        <v>-0.1179534966510958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04500622195816358</v>
+        <v>-0.04496446873317411</v>
       </c>
       <c r="C23">
-        <v>-0.03689193108115179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04058876793238777</v>
+      </c>
+      <c r="D23">
+        <v>-0.09884748112517819</v>
+      </c>
+      <c r="E23">
+        <v>0.04232608384058439</v>
+      </c>
+      <c r="F23">
+        <v>0.1114478961845725</v>
+      </c>
+      <c r="G23">
+        <v>-0.1180182348057546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06438178062431792</v>
+        <v>-0.06309173450914649</v>
       </c>
       <c r="C24">
-        <v>-0.1426527945205421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1395045044343481</v>
+      </c>
+      <c r="D24">
+        <v>0.05554676588327182</v>
+      </c>
+      <c r="E24">
+        <v>-0.06527434261946868</v>
+      </c>
+      <c r="F24">
+        <v>0.003096660533885106</v>
+      </c>
+      <c r="G24">
+        <v>0.003458553504849137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07107397889784256</v>
+        <v>-0.06878821691565312</v>
       </c>
       <c r="C25">
-        <v>-0.1280036973466075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1257060012199073</v>
+      </c>
+      <c r="D25">
+        <v>0.04287083194489689</v>
+      </c>
+      <c r="E25">
+        <v>-0.08032693216540154</v>
+      </c>
+      <c r="F25">
+        <v>-0.02403582049575028</v>
+      </c>
+      <c r="G25">
+        <v>0.03337641998712219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0568402831079541</v>
+        <v>-0.06094228889484836</v>
       </c>
       <c r="C26">
-        <v>-0.07352134666686645</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07737184279284912</v>
+      </c>
+      <c r="D26">
+        <v>0.02155195496978519</v>
+      </c>
+      <c r="E26">
+        <v>-0.07169473182687205</v>
+      </c>
+      <c r="F26">
+        <v>-0.01853999656831196</v>
+      </c>
+      <c r="G26">
+        <v>0.02069701912174763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1750151699592516</v>
+        <v>-0.178494351403726</v>
       </c>
       <c r="C28">
-        <v>0.2249941688905304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2257018245494088</v>
+      </c>
+      <c r="D28">
+        <v>-0.003245535682264662</v>
+      </c>
+      <c r="E28">
+        <v>-0.1423477236484248</v>
+      </c>
+      <c r="F28">
+        <v>-0.06490530537300589</v>
+      </c>
+      <c r="G28">
+        <v>0.02715240071532727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02465013685956374</v>
+        <v>-0.02673026950677202</v>
       </c>
       <c r="C29">
-        <v>-0.05625775746804879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05451334259704624</v>
+      </c>
+      <c r="D29">
+        <v>0.008642523062860038</v>
+      </c>
+      <c r="E29">
+        <v>-0.06819210175228203</v>
+      </c>
+      <c r="F29">
+        <v>-0.00602530072371257</v>
+      </c>
+      <c r="G29">
+        <v>-0.007280668804355629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03135379471765928</v>
+        <v>-0.03409719196794742</v>
       </c>
       <c r="C30">
-        <v>-0.06496538559605014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07213728368963508</v>
+      </c>
+      <c r="D30">
+        <v>0.1317604867920217</v>
+      </c>
+      <c r="E30">
+        <v>-0.06573062235670406</v>
+      </c>
+      <c r="F30">
+        <v>-0.05112622981886639</v>
+      </c>
+      <c r="G30">
+        <v>0.04174536504183542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05252488129911424</v>
+        <v>-0.05181551496314326</v>
       </c>
       <c r="C31">
-        <v>-0.03879445007974893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.04060899687761026</v>
+      </c>
+      <c r="D31">
+        <v>0.004975714246233578</v>
+      </c>
+      <c r="E31">
+        <v>-0.01980553488297906</v>
+      </c>
+      <c r="F31">
+        <v>0.0459176109655676</v>
+      </c>
+      <c r="G31">
+        <v>-0.01643041235533529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04214691063974386</v>
+        <v>-0.0460414572344159</v>
       </c>
       <c r="C32">
-        <v>-0.0591902338946614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05602941558172703</v>
+      </c>
+      <c r="D32">
+        <v>0.01604730686619099</v>
+      </c>
+      <c r="E32">
+        <v>0.000461865708062583</v>
+      </c>
+      <c r="F32">
+        <v>-0.01758456055461366</v>
+      </c>
+      <c r="G32">
+        <v>0.0139900500030929</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07515648875709424</v>
+        <v>-0.07956619312401764</v>
       </c>
       <c r="C33">
-        <v>-0.1164658567175443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1249745076304084</v>
+      </c>
+      <c r="D33">
+        <v>0.0692755615219276</v>
+      </c>
+      <c r="E33">
+        <v>-0.06357765096952007</v>
+      </c>
+      <c r="F33">
+        <v>0.009771463665114302</v>
+      </c>
+      <c r="G33">
+        <v>-0.0204309073637739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05367490125055216</v>
+        <v>-0.0529140822753703</v>
       </c>
       <c r="C34">
-        <v>-0.1312841778146677</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1300536614603427</v>
+      </c>
+      <c r="D34">
+        <v>0.08282167651449812</v>
+      </c>
+      <c r="E34">
+        <v>-0.07043153657586329</v>
+      </c>
+      <c r="F34">
+        <v>-0.02511046254115248</v>
+      </c>
+      <c r="G34">
+        <v>-0.02759868516610925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02699455574555476</v>
+        <v>-0.02947437930998967</v>
       </c>
       <c r="C35">
-        <v>-0.02134029032911432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02372996164340701</v>
+      </c>
+      <c r="D35">
+        <v>0.008783455815455369</v>
+      </c>
+      <c r="E35">
+        <v>-0.02114877955018287</v>
+      </c>
+      <c r="F35">
+        <v>-0.01613503444329678</v>
+      </c>
+      <c r="G35">
+        <v>-0.02000588709252879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02505046502606767</v>
+        <v>-0.02733265484772674</v>
       </c>
       <c r="C36">
-        <v>-0.05654820541590994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05522554712156708</v>
+      </c>
+      <c r="D36">
+        <v>0.05835250646278983</v>
+      </c>
+      <c r="E36">
+        <v>-0.001554139620238594</v>
+      </c>
+      <c r="F36">
+        <v>-0.02463211434654123</v>
+      </c>
+      <c r="G36">
+        <v>-0.0856264455343819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005637513508110772</v>
+        <v>-0.004196218039006664</v>
       </c>
       <c r="C37">
-        <v>0.0003897032572111756</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.00782199847594558</v>
+      </c>
+      <c r="D37">
+        <v>0.00174381891374182</v>
+      </c>
+      <c r="E37">
+        <v>-0.01033129409240893</v>
+      </c>
+      <c r="F37">
+        <v>0.00251039895190404</v>
+      </c>
+      <c r="G37">
+        <v>0.004212143631772235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07887124449749451</v>
+        <v>-0.07411549626920852</v>
       </c>
       <c r="C39">
-        <v>-0.1572275786232414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1504826460873806</v>
+      </c>
+      <c r="D39">
+        <v>0.02006574670121763</v>
+      </c>
+      <c r="E39">
+        <v>-0.1237305109833718</v>
+      </c>
+      <c r="F39">
+        <v>0.0279147032349513</v>
+      </c>
+      <c r="G39">
+        <v>0.02463111126704438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04874317117870335</v>
+        <v>-0.05133589915649726</v>
       </c>
       <c r="C40">
-        <v>-0.07427338527676156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08060294352724598</v>
+      </c>
+      <c r="D40">
+        <v>0.01143061887063086</v>
+      </c>
+      <c r="E40">
+        <v>-0.03572522482614236</v>
+      </c>
+      <c r="F40">
+        <v>-0.04834837314246204</v>
+      </c>
+      <c r="G40">
+        <v>-0.004232773626874818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02908876454293245</v>
+        <v>-0.02914852937449214</v>
       </c>
       <c r="C41">
-        <v>-0.0250257203399609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02609176441659085</v>
+      </c>
+      <c r="D41">
+        <v>-0.00892264993633532</v>
+      </c>
+      <c r="E41">
+        <v>0.01380231407307453</v>
+      </c>
+      <c r="F41">
+        <v>-0.01013592103840429</v>
+      </c>
+      <c r="G41">
+        <v>-0.002357127999339758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.043164378205442</v>
+        <v>-0.04166292895116892</v>
       </c>
       <c r="C43">
-        <v>-0.04302109394851112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03992946829040808</v>
+      </c>
+      <c r="D43">
+        <v>-0.01387668015659156</v>
+      </c>
+      <c r="E43">
+        <v>-0.01955685143213097</v>
+      </c>
+      <c r="F43">
+        <v>0.0239517303129675</v>
+      </c>
+      <c r="G43">
+        <v>-0.03286540261362252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05552840429021809</v>
+        <v>-0.06018301690998546</v>
       </c>
       <c r="C44">
-        <v>-0.08817405506736592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0905993418301551</v>
+      </c>
+      <c r="D44">
+        <v>0.2872074835936674</v>
+      </c>
+      <c r="E44">
+        <v>-0.09956222836420162</v>
+      </c>
+      <c r="F44">
+        <v>-0.1103178621389337</v>
+      </c>
+      <c r="G44">
+        <v>-0.1344753314989244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0007120367180372354</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0007995317870100637</v>
+      </c>
+      <c r="D45">
+        <v>-7.071265161324356e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004332898058126271</v>
+      </c>
+      <c r="F45">
+        <v>0.004699595254087268</v>
+      </c>
+      <c r="G45">
+        <v>0.004057832265851075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02790713155051474</v>
+        <v>-0.02914584670681783</v>
       </c>
       <c r="C46">
-        <v>-0.04599332557166846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04232145309509812</v>
+      </c>
+      <c r="D46">
+        <v>0.001625714320388083</v>
+      </c>
+      <c r="E46">
+        <v>-0.06511932877720999</v>
+      </c>
+      <c r="F46">
+        <v>0.03424617201609882</v>
+      </c>
+      <c r="G46">
+        <v>-0.008246577616392642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05650624788733632</v>
+        <v>-0.05403276587248219</v>
       </c>
       <c r="C47">
-        <v>-0.04345721908674652</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.04204039170242555</v>
+      </c>
+      <c r="D47">
+        <v>-0.03083368624714637</v>
+      </c>
+      <c r="E47">
+        <v>0.007759825036391041</v>
+      </c>
+      <c r="F47">
+        <v>0.06206990847839831</v>
+      </c>
+      <c r="G47">
+        <v>-0.03401500421106031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04755399345854659</v>
+        <v>-0.04950306953818176</v>
       </c>
       <c r="C48">
-        <v>-0.07228086364562986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07127972309375222</v>
+      </c>
+      <c r="D48">
+        <v>0.03196410100912361</v>
+      </c>
+      <c r="E48">
+        <v>-0.05915651997057084</v>
+      </c>
+      <c r="F48">
+        <v>-0.0010218789007174</v>
+      </c>
+      <c r="G48">
+        <v>0.03924876332788544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1852056195794234</v>
+        <v>-0.1912790541956012</v>
       </c>
       <c r="C49">
-        <v>0.02906166311696478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0230790559219227</v>
+      </c>
+      <c r="D49">
+        <v>0.03031842143092004</v>
+      </c>
+      <c r="E49">
+        <v>0.01650419923799661</v>
+      </c>
+      <c r="F49">
+        <v>-0.04634798367985841</v>
+      </c>
+      <c r="G49">
+        <v>0.07006390489194739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05224682533189639</v>
+        <v>-0.052390659423681</v>
       </c>
       <c r="C50">
-        <v>-0.0375213569532849</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03980447057328796</v>
+      </c>
+      <c r="D50">
+        <v>0.01990705049519116</v>
+      </c>
+      <c r="E50">
+        <v>-0.01043310368880135</v>
+      </c>
+      <c r="F50">
+        <v>0.04137958802821048</v>
+      </c>
+      <c r="G50">
+        <v>-0.006473922990296617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1408695814636287</v>
+        <v>-0.1358899748908118</v>
       </c>
       <c r="C52">
-        <v>-0.03644706672729522</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0345969764821466</v>
+      </c>
+      <c r="D52">
+        <v>0.04499765403913911</v>
+      </c>
+      <c r="E52">
+        <v>0.07123296386805582</v>
+      </c>
+      <c r="F52">
+        <v>0.09505421633209067</v>
+      </c>
+      <c r="G52">
+        <v>-0.04693936485731379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1671173366572469</v>
+        <v>-0.160916172408337</v>
       </c>
       <c r="C53">
-        <v>0.01276160632606326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.009857868365814936</v>
+      </c>
+      <c r="D53">
+        <v>0.07975925312858043</v>
+      </c>
+      <c r="E53">
+        <v>0.1073987634184648</v>
+      </c>
+      <c r="F53">
+        <v>0.1487243671285782</v>
+      </c>
+      <c r="G53">
+        <v>-0.04682968548898368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01178287036259966</v>
+        <v>-0.01393721886807065</v>
       </c>
       <c r="C54">
-        <v>-0.04102437260739002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04120378130148913</v>
+      </c>
+      <c r="D54">
+        <v>0.01589677710553581</v>
+      </c>
+      <c r="E54">
+        <v>-0.03961348377664434</v>
+      </c>
+      <c r="F54">
+        <v>0.004793350602115795</v>
+      </c>
+      <c r="G54">
+        <v>0.00316685130265789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1220368359892185</v>
+        <v>-0.1197650975247745</v>
       </c>
       <c r="C55">
-        <v>-0.01622936891670925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01865569766963893</v>
+      </c>
+      <c r="D55">
+        <v>0.05712193378728492</v>
+      </c>
+      <c r="E55">
+        <v>0.03725633863578188</v>
+      </c>
+      <c r="F55">
+        <v>0.1516484552134592</v>
+      </c>
+      <c r="G55">
+        <v>-0.05810349172699932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1795202430638035</v>
+        <v>-0.1742493128037011</v>
       </c>
       <c r="C56">
-        <v>0.007665243693420877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.008094540370454963</v>
+      </c>
+      <c r="D56">
+        <v>0.03030176809887397</v>
+      </c>
+      <c r="E56">
+        <v>0.1398577853300681</v>
+      </c>
+      <c r="F56">
+        <v>0.1541891852095955</v>
+      </c>
+      <c r="G56">
+        <v>-0.03106673286781748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04182499953127824</v>
+        <v>-0.0412810330811241</v>
       </c>
       <c r="C58">
-        <v>-0.09684448608094159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1072016177734403</v>
+      </c>
+      <c r="D58">
+        <v>-0.005572198838415912</v>
+      </c>
+      <c r="E58">
+        <v>-0.0394607416421966</v>
+      </c>
+      <c r="F58">
+        <v>0.01969433877002634</v>
+      </c>
+      <c r="G58">
+        <v>-0.003214661314420483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1865933288189674</v>
+        <v>-0.1933527767679328</v>
       </c>
       <c r="C59">
-        <v>0.1619737904666614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1709598595010091</v>
+      </c>
+      <c r="D59">
+        <v>-0.08847919332839532</v>
+      </c>
+      <c r="E59">
+        <v>-0.07328143221272385</v>
+      </c>
+      <c r="F59">
+        <v>0.01012249231439783</v>
+      </c>
+      <c r="G59">
+        <v>0.04162549255974568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2105332060411449</v>
+        <v>-0.2084544224046762</v>
       </c>
       <c r="C60">
-        <v>0.00423254728182727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.0006502340804908773</v>
+      </c>
+      <c r="D60">
+        <v>-0.06649904646997284</v>
+      </c>
+      <c r="E60">
+        <v>0.139676638884161</v>
+      </c>
+      <c r="F60">
+        <v>0.05724642761059992</v>
+      </c>
+      <c r="G60">
+        <v>0.1037257254181254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06128872621486936</v>
+        <v>-0.05921519538724641</v>
       </c>
       <c r="C61">
-        <v>-0.1314173481381062</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1287685987169004</v>
+      </c>
+      <c r="D61">
+        <v>0.02022440089032582</v>
+      </c>
+      <c r="E61">
+        <v>-0.075389501601575</v>
+      </c>
+      <c r="F61">
+        <v>0.00129389145830814</v>
+      </c>
+      <c r="G61">
+        <v>0.02504213463621896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1698995183321972</v>
+        <v>-0.1663244497604568</v>
       </c>
       <c r="C62">
-        <v>0.003567874013985063</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.003784115390137265</v>
+      </c>
+      <c r="D62">
+        <v>0.03059982266876646</v>
+      </c>
+      <c r="E62">
+        <v>0.119354541629364</v>
+      </c>
+      <c r="F62">
+        <v>0.1402160938889519</v>
+      </c>
+      <c r="G62">
+        <v>-0.03907913413218057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03928537423394923</v>
+        <v>-0.04245328696607759</v>
       </c>
       <c r="C63">
-        <v>-0.08191928179873309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08462111308210722</v>
+      </c>
+      <c r="D63">
+        <v>0.01744968078993473</v>
+      </c>
+      <c r="E63">
+        <v>-0.03638096098319192</v>
+      </c>
+      <c r="F63">
+        <v>-0.02214790830719121</v>
+      </c>
+      <c r="G63">
+        <v>-0.01933874345631265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1133058114722233</v>
+        <v>-0.1106882764105539</v>
       </c>
       <c r="C64">
-        <v>-0.0632800998273024</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06521260001747298</v>
+      </c>
+      <c r="D64">
+        <v>0.0283451600069037</v>
+      </c>
+      <c r="E64">
+        <v>0.05130956883047037</v>
+      </c>
+      <c r="F64">
+        <v>0.01557504972832348</v>
+      </c>
+      <c r="G64">
+        <v>0.01339966347197973</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.162111100464125</v>
+        <v>-0.1639584470405275</v>
       </c>
       <c r="C65">
-        <v>0.06048729824423678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04812143805552565</v>
+      </c>
+      <c r="D65">
+        <v>0.07133860922495627</v>
+      </c>
+      <c r="E65">
+        <v>-0.003574407528501711</v>
+      </c>
+      <c r="F65">
+        <v>0.04442013244423761</v>
+      </c>
+      <c r="G65">
+        <v>-0.02349152417312248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.094661728877088</v>
+        <v>-0.09040317683876077</v>
       </c>
       <c r="C66">
-        <v>-0.133341502699425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1319664664542318</v>
+      </c>
+      <c r="D66">
+        <v>0.02222497744601212</v>
+      </c>
+      <c r="E66">
+        <v>-0.09333996834364612</v>
+      </c>
+      <c r="F66">
+        <v>-0.02312102259152834</v>
+      </c>
+      <c r="G66">
+        <v>0.0026119896740408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04976708255669968</v>
+        <v>-0.04345785734805431</v>
       </c>
       <c r="C67">
-        <v>-0.08567596354717105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07800428823028434</v>
+      </c>
+      <c r="D67">
+        <v>-0.06884867267576351</v>
+      </c>
+      <c r="E67">
+        <v>0.0295032746735064</v>
+      </c>
+      <c r="F67">
+        <v>0.04893191853886403</v>
+      </c>
+      <c r="G67">
+        <v>-0.05857705189271494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1466551292948183</v>
+        <v>-0.1480905011712549</v>
       </c>
       <c r="C68">
-        <v>0.2449253630488761</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2445395825403749</v>
+      </c>
+      <c r="D68">
+        <v>-0.0007814517295413607</v>
+      </c>
+      <c r="E68">
+        <v>-0.1337758882321865</v>
+      </c>
+      <c r="F68">
+        <v>-0.07382642540265759</v>
+      </c>
+      <c r="G68">
+        <v>0.0762750687350937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03989948167555846</v>
+        <v>-0.03831406374497559</v>
       </c>
       <c r="C69">
-        <v>-0.01538174215536882</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01798775628309008</v>
+      </c>
+      <c r="D69">
+        <v>-0.008601829829804314</v>
+      </c>
+      <c r="E69">
+        <v>0.04872704884358395</v>
+      </c>
+      <c r="F69">
+        <v>0.04078298130924069</v>
+      </c>
+      <c r="G69">
+        <v>-0.06534883438161074</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07446198131679978</v>
+        <v>-0.07255337431050228</v>
       </c>
       <c r="C70">
-        <v>-0.09747745055007284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09706195536453446</v>
+      </c>
+      <c r="D70">
+        <v>-0.5339640413465423</v>
+      </c>
+      <c r="E70">
+        <v>0.2367890554072531</v>
+      </c>
+      <c r="F70">
+        <v>0.2690670018268891</v>
+      </c>
+      <c r="G70">
+        <v>0.4954986542080603</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1710720305002908</v>
+        <v>-0.1732030648657738</v>
       </c>
       <c r="C71">
-        <v>0.2496999587524228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.24892063028107</v>
+      </c>
+      <c r="D71">
+        <v>-0.008514305368360968</v>
+      </c>
+      <c r="E71">
+        <v>-0.1374192900972829</v>
+      </c>
+      <c r="F71">
+        <v>-0.0846374308475154</v>
+      </c>
+      <c r="G71">
+        <v>0.08855215646616132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1446924939048107</v>
+        <v>-0.1493451459444191</v>
       </c>
       <c r="C72">
-        <v>-0.00961252804144511</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.008836569325388181</v>
+      </c>
+      <c r="D72">
+        <v>0.04452825849147681</v>
+      </c>
+      <c r="E72">
+        <v>0.0268138659596145</v>
+      </c>
+      <c r="F72">
+        <v>0.07042441478455254</v>
+      </c>
+      <c r="G72">
+        <v>-0.08736377883761763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1857429396098927</v>
+        <v>-0.1943656811573032</v>
       </c>
       <c r="C73">
-        <v>-0.01859820310120169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02482142728473408</v>
+      </c>
+      <c r="D73">
+        <v>0.03374525648987704</v>
+      </c>
+      <c r="E73">
+        <v>0.09355253791280191</v>
+      </c>
+      <c r="F73">
+        <v>0.04115629414453319</v>
+      </c>
+      <c r="G73">
+        <v>-0.041517986979744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0878848872380756</v>
+        <v>-0.08667660803629912</v>
       </c>
       <c r="C74">
-        <v>-0.004566209434165956</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01107415815228039</v>
+      </c>
+      <c r="D74">
+        <v>0.06823377270677798</v>
+      </c>
+      <c r="E74">
+        <v>0.07732229046720311</v>
+      </c>
+      <c r="F74">
+        <v>0.05767693367972516</v>
+      </c>
+      <c r="G74">
+        <v>-0.04182496742508916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1219952009816693</v>
+        <v>-0.1145789421640669</v>
       </c>
       <c r="C75">
-        <v>-0.02557782006675721</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02622461408787284</v>
+      </c>
+      <c r="D75">
+        <v>0.02414254765016316</v>
+      </c>
+      <c r="E75">
+        <v>0.06630535209143232</v>
+      </c>
+      <c r="F75">
+        <v>0.1241810978878792</v>
+      </c>
+      <c r="G75">
+        <v>-0.07855287655146662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07701602157945968</v>
+        <v>-0.08734778981481878</v>
       </c>
       <c r="C77">
-        <v>-0.12026403680634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1238297560899464</v>
+      </c>
+      <c r="D77">
+        <v>0.08326140364346934</v>
+      </c>
+      <c r="E77">
+        <v>-0.08971443372848403</v>
+      </c>
+      <c r="F77">
+        <v>0.0526588562375404</v>
+      </c>
+      <c r="G77">
+        <v>0.1326904419657601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07571796242647309</v>
+        <v>-0.08286167408503493</v>
       </c>
       <c r="C78">
-        <v>-0.1265061582324954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.127635459859365</v>
+      </c>
+      <c r="D78">
+        <v>0.05399104734120352</v>
+      </c>
+      <c r="E78">
+        <v>-0.1165413753469796</v>
+      </c>
+      <c r="F78">
+        <v>0.07505725597595192</v>
+      </c>
+      <c r="G78">
+        <v>0.008956734162658001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1678138353598844</v>
+        <v>-0.1632372322789603</v>
       </c>
       <c r="C79">
-        <v>-0.02333689786268072</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02237857454565385</v>
+      </c>
+      <c r="D79">
+        <v>0.01690357536950263</v>
+      </c>
+      <c r="E79">
+        <v>0.05693580522461371</v>
+      </c>
+      <c r="F79">
+        <v>0.1080157289610664</v>
+      </c>
+      <c r="G79">
+        <v>-0.05245868041360196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07833276264076262</v>
+        <v>-0.07479032495376484</v>
       </c>
       <c r="C80">
-        <v>-0.08444102665314973</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07906318356327278</v>
+      </c>
+      <c r="D80">
+        <v>-0.007657500843963297</v>
+      </c>
+      <c r="E80">
+        <v>-0.05804783104294137</v>
+      </c>
+      <c r="F80">
+        <v>-0.08247665076963942</v>
+      </c>
+      <c r="G80">
+        <v>-0.03411695303691416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1127497095086205</v>
+        <v>-0.1062243963884018</v>
       </c>
       <c r="C81">
-        <v>0.01187366815376815</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01125701150738677</v>
+      </c>
+      <c r="D81">
+        <v>-0.001600049408951241</v>
+      </c>
+      <c r="E81">
+        <v>0.08221465904087326</v>
+      </c>
+      <c r="F81">
+        <v>0.1058136431891448</v>
+      </c>
+      <c r="G81">
+        <v>-0.1095933279292518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.162618564982816</v>
+        <v>-0.1575327544932132</v>
       </c>
       <c r="C82">
-        <v>0.01533380677979501</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01218133188088086</v>
+      </c>
+      <c r="D82">
+        <v>0.0836048228062386</v>
+      </c>
+      <c r="E82">
+        <v>0.1276865937047962</v>
+      </c>
+      <c r="F82">
+        <v>0.06930732301207961</v>
+      </c>
+      <c r="G82">
+        <v>-0.06056287248947911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05132687288565816</v>
+        <v>-0.04786310040168736</v>
       </c>
       <c r="C83">
-        <v>-0.06492316551124021</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0598672178752248</v>
+      </c>
+      <c r="D83">
+        <v>-0.02583583001491751</v>
+      </c>
+      <c r="E83">
+        <v>-0.0002697906861302244</v>
+      </c>
+      <c r="F83">
+        <v>-0.003291679626590263</v>
+      </c>
+      <c r="G83">
+        <v>0.01919314735779049</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04576039217156119</v>
+        <v>-0.04497505009185121</v>
       </c>
       <c r="C84">
-        <v>-0.07537777683601991</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0729565137704377</v>
+      </c>
+      <c r="D84">
+        <v>-0.02056920070717188</v>
+      </c>
+      <c r="E84">
+        <v>0.007879348598301262</v>
+      </c>
+      <c r="F84">
+        <v>0.02459201015861502</v>
+      </c>
+      <c r="G84">
+        <v>0.01717970101170394</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1399545663631933</v>
+        <v>-0.1351743316419978</v>
       </c>
       <c r="C85">
-        <v>-0.007973185116889138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008749359722700219</v>
+      </c>
+      <c r="D85">
+        <v>0.08140254314019318</v>
+      </c>
+      <c r="E85">
+        <v>0.04933692087735242</v>
+      </c>
+      <c r="F85">
+        <v>0.1030484078514068</v>
+      </c>
+      <c r="G85">
+        <v>-0.06593676093529419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0819733527087753</v>
+        <v>-0.08236492808092978</v>
       </c>
       <c r="C86">
-        <v>-0.1607221712188542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1625925245388835</v>
+      </c>
+      <c r="D86">
+        <v>-0.6172711803189701</v>
+      </c>
+      <c r="E86">
+        <v>-0.4804654302203163</v>
+      </c>
+      <c r="F86">
+        <v>0.02036614360611607</v>
+      </c>
+      <c r="G86">
+        <v>-0.4366040390189442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09075246050799073</v>
+        <v>-0.08665751266203942</v>
       </c>
       <c r="C87">
-        <v>-0.1050666764051649</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1022938982847893</v>
+      </c>
+      <c r="D87">
+        <v>0.1158266732402114</v>
+      </c>
+      <c r="E87">
+        <v>-0.07389185265199476</v>
+      </c>
+      <c r="F87">
+        <v>-0.1671352013804422</v>
+      </c>
+      <c r="G87">
+        <v>0.140203726089299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05964847487709911</v>
+        <v>-0.05920792972632943</v>
       </c>
       <c r="C88">
-        <v>-0.06403772295184806</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06375954381504281</v>
+      </c>
+      <c r="D88">
+        <v>0.008349009182049618</v>
+      </c>
+      <c r="E88">
+        <v>0.02675162038686983</v>
+      </c>
+      <c r="F88">
+        <v>0.02997277168845406</v>
+      </c>
+      <c r="G88">
+        <v>-0.006487543704064072</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1550801756432371</v>
+        <v>-0.1537676493096925</v>
       </c>
       <c r="C89">
-        <v>0.194606471407568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2022992008696805</v>
+      </c>
+      <c r="D89">
+        <v>0.006525404696600697</v>
+      </c>
+      <c r="E89">
+        <v>-0.0898248789403288</v>
+      </c>
+      <c r="F89">
+        <v>-0.07042153323522428</v>
+      </c>
+      <c r="G89">
+        <v>0.04719615767986714</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1872642682246982</v>
+        <v>-0.1901183973413088</v>
       </c>
       <c r="C90">
-        <v>0.2253534788612651</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2284405187012254</v>
+      </c>
+      <c r="D90">
+        <v>-0.009579215680601863</v>
+      </c>
+      <c r="E90">
+        <v>-0.1597292030753723</v>
+      </c>
+      <c r="F90">
+        <v>-0.1330068704878914</v>
+      </c>
+      <c r="G90">
+        <v>0.09975135425320959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1261449821091565</v>
+        <v>-0.1200571102062975</v>
       </c>
       <c r="C91">
-        <v>0.01954161850122423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01865630018687777</v>
+      </c>
+      <c r="D91">
+        <v>-0.02686894329795537</v>
+      </c>
+      <c r="E91">
+        <v>0.1085620561502769</v>
+      </c>
+      <c r="F91">
+        <v>0.1182479864578589</v>
+      </c>
+      <c r="G91">
+        <v>-0.1331334898715742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1801700120577013</v>
+        <v>-0.1806999797992664</v>
       </c>
       <c r="C92">
-        <v>0.2553966132939497</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2674661625224103</v>
+      </c>
+      <c r="D92">
+        <v>-0.01317132723991219</v>
+      </c>
+      <c r="E92">
+        <v>-0.2022901847515393</v>
+      </c>
+      <c r="F92">
+        <v>-0.04724202994643045</v>
+      </c>
+      <c r="G92">
+        <v>0.07688207978458518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.182462584285531</v>
+        <v>-0.1890031162343227</v>
       </c>
       <c r="C93">
-        <v>0.2204803073758537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2231522007177372</v>
+      </c>
+      <c r="D93">
+        <v>-0.01459189197612777</v>
+      </c>
+      <c r="E93">
+        <v>-0.1116460357728533</v>
+      </c>
+      <c r="F93">
+        <v>-0.003350586272948623</v>
+      </c>
+      <c r="G93">
+        <v>0.06453263270886163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1175169913776173</v>
+        <v>-0.112220589529855</v>
       </c>
       <c r="C94">
-        <v>-0.0349401915558295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03460736559039786</v>
+      </c>
+      <c r="D94">
+        <v>0.02487205963510023</v>
+      </c>
+      <c r="E94">
+        <v>0.06359060874656641</v>
+      </c>
+      <c r="F94">
+        <v>0.1175574864270192</v>
+      </c>
+      <c r="G94">
+        <v>-0.07525308672637598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1183652175671471</v>
+        <v>-0.1184246210672251</v>
       </c>
       <c r="C95">
-        <v>-0.1091488987103856</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1180513914732247</v>
+      </c>
+      <c r="D95">
+        <v>-0.0008401841118036915</v>
+      </c>
+      <c r="E95">
+        <v>-0.07312705017216393</v>
+      </c>
+      <c r="F95">
+        <v>-0.0008903994560879902</v>
+      </c>
+      <c r="G95">
+        <v>0.007059751153122077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.112596559269042</v>
+        <v>-0.1114659681336559</v>
       </c>
       <c r="C96">
-        <v>-0.1255247511886557</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1283222272378483</v>
+      </c>
+      <c r="D96">
+        <v>-0.01865907398264648</v>
+      </c>
+      <c r="E96">
+        <v>0.04590877103778968</v>
+      </c>
+      <c r="F96">
+        <v>0.03848881802614713</v>
+      </c>
+      <c r="G96">
+        <v>0.1304907557049714</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1971837723839649</v>
+        <v>-0.200909480043074</v>
       </c>
       <c r="C97">
-        <v>-0.01805495183676415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01065302043517228</v>
+      </c>
+      <c r="D97">
+        <v>-0.186373123250317</v>
+      </c>
+      <c r="E97">
+        <v>0.4764557387924162</v>
+      </c>
+      <c r="F97">
+        <v>-0.5995957220957457</v>
+      </c>
+      <c r="G97">
+        <v>-0.3750123404273963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1962775475251918</v>
+        <v>-0.2032278992189171</v>
       </c>
       <c r="C98">
-        <v>-0.02267359311096633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.0262176140124985</v>
+      </c>
+      <c r="D98">
+        <v>-0.07169026940237652</v>
+      </c>
+      <c r="E98">
+        <v>0.0849009774807636</v>
+      </c>
+      <c r="F98">
+        <v>-0.08375549674011902</v>
+      </c>
+      <c r="G98">
+        <v>0.1286515940805227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05028462521807779</v>
+        <v>-0.05080843040021239</v>
       </c>
       <c r="C99">
-        <v>-0.06206135992511817</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.0609519121481299</v>
+      </c>
+      <c r="D99">
+        <v>-0.002395369530378044</v>
+      </c>
+      <c r="E99">
+        <v>-0.02839131991517657</v>
+      </c>
+      <c r="F99">
+        <v>-0.03331334618647221</v>
+      </c>
+      <c r="G99">
+        <v>0.01185819133337811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09709988636288736</v>
+        <v>-0.09397436353398032</v>
       </c>
       <c r="C100">
-        <v>-0.3217415803839458</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.305151707332663</v>
+      </c>
+      <c r="D100">
+        <v>-0.1211201459458845</v>
+      </c>
+      <c r="E100">
+        <v>0.028700613469018</v>
+      </c>
+      <c r="F100">
+        <v>-0.4586235354488409</v>
+      </c>
+      <c r="G100">
+        <v>0.3739609407240881</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02458654339556217</v>
+        <v>-0.02666794162614517</v>
       </c>
       <c r="C101">
-        <v>-0.05565909685160509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05388801145400726</v>
+      </c>
+      <c r="D101">
+        <v>0.004354789908729094</v>
+      </c>
+      <c r="E101">
+        <v>-0.06398095210713803</v>
+      </c>
+      <c r="F101">
+        <v>-0.002831911476058567</v>
+      </c>
+      <c r="G101">
+        <v>-0.004723611510727059</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
